--- a/analysis/pre_gemini_data/participant330_/easy.xlsx
+++ b/analysis/pre_gemini_data/participant330_/easy.xlsx
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,82 +422,78 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 0</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr"/>
+      <c r="B1" t="inlineStr">
         <is>
           <t>code</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>cond</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>gemini</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>index</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>literal</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>loop</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>methdodec</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>params</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>return</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>summary</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>var</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>var2</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>var3</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>var4</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>var5</t>
         </is>
@@ -544,7 +528,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -567,7 +551,7 @@
         <v>6</v>
       </c>
       <c r="K3" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -586,7 +570,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4" t="n">
         <v>2</v>
@@ -609,7 +593,7 @@
         <v>14</v>
       </c>
       <c r="K4" t="n">
-        <v>182</v>
+        <v>150</v>
       </c>
       <c r="L4" t="n">
         <v>1</v>
@@ -624,40 +608,40 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>TTFF AOI (ms)</t>
+          <t>Dwell time (ms)</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3452.69</v>
+        <v>8559.360000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>12261.9</v>
+        <v>350.29</v>
       </c>
       <c r="D5" t="n">
-        <v>31.06</v>
+        <v>16433.34</v>
       </c>
       <c r="E5" t="n">
-        <v>12261.9</v>
+        <v>350.29</v>
       </c>
       <c r="F5" t="n">
-        <v>12261.9</v>
+        <v>350.29</v>
       </c>
       <c r="G5" t="n">
-        <v>6322.37</v>
+        <v>2002.07</v>
       </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="n">
-        <v>3569.53</v>
+        <v>4337.91</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>43981.63</v>
       </c>
       <c r="L5" t="n">
-        <v>3569.53</v>
+        <v>233.56</v>
       </c>
       <c r="M5" t="n">
-        <v>6322.37</v>
+        <v>2235.62</v>
       </c>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
@@ -666,40 +650,40 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Dwell time (ms)</t>
+          <t>Dwell time (%)</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9176.68</v>
+        <v>12.62</v>
       </c>
       <c r="C6" t="n">
-        <v>350.29</v>
+        <v>0.52</v>
       </c>
       <c r="D6" t="n">
-        <v>16433.34</v>
+        <v>42.74</v>
       </c>
       <c r="E6" t="n">
-        <v>350.29</v>
+        <v>0.52</v>
       </c>
       <c r="F6" t="n">
-        <v>350.29</v>
+        <v>0.52</v>
       </c>
       <c r="G6" t="n">
-        <v>2002.07</v>
+        <v>2.95</v>
       </c>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="n">
-        <v>4337.91</v>
+        <v>6.4</v>
       </c>
       <c r="K6" t="n">
-        <v>51765.75</v>
+        <v>64.84999999999999</v>
       </c>
       <c r="L6" t="n">
-        <v>233.56</v>
+        <v>0.34</v>
       </c>
       <c r="M6" t="n">
-        <v>2235.62</v>
+        <v>3.3</v>
       </c>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
@@ -708,40 +692,40 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Dwell time (%)</t>
+          <t>Fixation duration (ms)</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8.640000000000001</v>
+        <v>267.48</v>
       </c>
       <c r="C7" t="n">
-        <v>0.33</v>
+        <v>175.15</v>
       </c>
       <c r="D7" t="n">
-        <v>42.74</v>
+        <v>265.05</v>
       </c>
       <c r="E7" t="n">
-        <v>0.33</v>
+        <v>175.15</v>
       </c>
       <c r="F7" t="n">
-        <v>0.33</v>
+        <v>175.15</v>
       </c>
       <c r="G7" t="n">
-        <v>1.88</v>
+        <v>500.52</v>
       </c>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="n">
-        <v>4.08</v>
+        <v>309.85</v>
       </c>
       <c r="K7" t="n">
-        <v>48.71</v>
+        <v>293.21</v>
       </c>
       <c r="L7" t="n">
-        <v>0.22</v>
+        <v>233.56</v>
       </c>
       <c r="M7" t="n">
-        <v>2.1</v>
+        <v>558.9</v>
       </c>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
@@ -750,122 +734,44 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Fixation duration (ms)</t>
+          <t>First fixation duration (ms)</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>278.08</v>
+        <v>100.14</v>
       </c>
       <c r="C8" t="n">
-        <v>175.15</v>
+        <v>216.86</v>
       </c>
       <c r="D8" t="n">
-        <v>265.05</v>
+        <v>166.87</v>
       </c>
       <c r="E8" t="n">
-        <v>175.15</v>
+        <v>216.86</v>
       </c>
       <c r="F8" t="n">
-        <v>175.15</v>
+        <v>216.86</v>
       </c>
       <c r="G8" t="n">
-        <v>500.52</v>
+        <v>1201.28</v>
       </c>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="n">
-        <v>309.85</v>
+        <v>233.56</v>
       </c>
       <c r="K8" t="n">
-        <v>284.43</v>
+        <v>199.35</v>
       </c>
       <c r="L8" t="n">
         <v>233.56</v>
       </c>
       <c r="M8" t="n">
-        <v>558.9</v>
+        <v>1201.28</v>
       </c>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>First fixation duration (ms)</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>100.14</v>
-      </c>
-      <c r="C9" t="n">
-        <v>216.86</v>
-      </c>
-      <c r="D9" t="n">
-        <v>166.87</v>
-      </c>
-      <c r="E9" t="n">
-        <v>216.86</v>
-      </c>
-      <c r="F9" t="n">
-        <v>216.86</v>
-      </c>
-      <c r="G9" t="n">
-        <v>1201.28</v>
-      </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="n">
-        <v>233.56</v>
-      </c>
-      <c r="K9" t="n">
-        <v>199.35</v>
-      </c>
-      <c r="L9" t="n">
-        <v>233.56</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1201.28</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr"/>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr"/>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
